--- a/data/trans_dic/P1801-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -734,12 +735,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,58; 54,67</t>
+          <t>44,44; 54,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,0; 58,52</t>
+          <t>49,42; 58,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>53,17; 63,18</t>
+          <t>52,27; 63,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,56; 65,52</t>
+          <t>57,84; 65,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,61; 56,84</t>
+          <t>49,57; 56,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>54,33; 60,57</t>
+          <t>54,2; 60,3</t>
         </is>
       </c>
     </row>
@@ -874,12 +875,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>44,38; 55,07</t>
+          <t>44,53; 54,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,58; 62,16</t>
+          <t>52,49; 61,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,36; 62,84</t>
+          <t>52,75; 63,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,03; 61,02</t>
+          <t>52,16; 60,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -914,12 +915,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,07; 57,69</t>
+          <t>50,1; 57,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>53,59; 60,12</t>
+          <t>53,43; 60,09</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>48,61; 57,7</t>
+          <t>49,0; 57,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,99; 88,46</t>
+          <t>51,66; 89,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1034,12 +1035,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,98; 71,2</t>
+          <t>55,83; 71,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,22; 63,49</t>
+          <t>50,71; 63,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1055,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,74; 59,59</t>
+          <t>51,62; 59,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,44; 86,9</t>
+          <t>53,04; 84,97</t>
         </is>
       </c>
     </row>
@@ -1154,12 +1155,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,93; 50,89</t>
+          <t>44,99; 50,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,78; 53,59</t>
+          <t>46,6; 53,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1174,12 +1175,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,9; 58,03</t>
+          <t>51,07; 57,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,3; 82,22</t>
+          <t>57,47; 82,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1194,12 +1195,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,38; 53,14</t>
+          <t>48,52; 52,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,77; 71,8</t>
+          <t>53,02; 71,13</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1295,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41,52; 49,33</t>
+          <t>40,75; 49,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,68; 52,62</t>
+          <t>42,43; 52,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1314,12 +1315,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>51,57; 58,91</t>
+          <t>51,69; 59,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,57; 58,51</t>
+          <t>37,39; 58,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1334,12 +1335,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48,14; 53,48</t>
+          <t>48,02; 53,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>41,34; 54,3</t>
+          <t>39,46; 54,37</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1435,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,97; 28,71</t>
+          <t>19,18; 29,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,0; 30,91</t>
+          <t>14,5; 32,35</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1454,12 +1455,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>55,88; 61,69</t>
+          <t>55,47; 61,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,79; 51,72</t>
+          <t>45,06; 51,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1474,12 +1475,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>48,76; 54,23</t>
+          <t>48,58; 54,32</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>38,27; 45,21</t>
+          <t>38,3; 45,3</t>
         </is>
       </c>
     </row>
@@ -1574,12 +1575,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44,9; 48,3</t>
+          <t>44,83; 48,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48,82; 64,09</t>
+          <t>48,93; 64,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1594,12 +1595,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55,48; 58,82</t>
+          <t>55,67; 58,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>53,43; 66,79</t>
+          <t>53,53; 64,81</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1614,12 +1615,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,71; 53,13</t>
+          <t>50,7; 53,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>52,01; 61,56</t>
+          <t>52,09; 60,8</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que en los últimos 12 meses han visitado un laboratorio de análisis</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>210751</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>271138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>202400</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>275280</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>413151</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>546418</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1995</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>190703; 233251</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>249137; 293532</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2125</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>181395; 220064</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>257817; 292804</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1988</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2098</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>384738; 440020</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>514836; 572821</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>187918</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>259200</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>215785</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>215511</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>403704</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>474711</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2138</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>167974; 206709</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>237374; 279381</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2120</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>196362; 234667</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>199194; 232049</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2134</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>375500; 431083</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>445668; 501184</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>278498</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>470049</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>105427</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>95697</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>383925</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>565746</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>255726; 300985</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>345248; 597066</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1951</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2038</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>92741; 117948</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84326; 105981</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1956</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>355137; 410427</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>442607; 709147</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>964</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1383</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>550675</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>518011</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>450988</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>655395</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1001662</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1173406</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2053</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>517187; 584894</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>481757; 551748</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2068</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>421762; 478946</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>561667; 801626</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1954</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>958512; 1044755</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1066350; 1430557</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>280168</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>225149</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>408552</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>431771</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>688720</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>656920</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>252962; 308006</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>201017; 248907</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2022</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2077</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>381632; 439079</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>314209; 489513</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>652542; 725184</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>518608; 714494</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>68137</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>52078</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>636423</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>366302</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>704560</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>418379</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1864</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1926</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>55079; 84417</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>34865; 77814</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1936</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2039</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>600174; 669742</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>342540; 391747</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>665206; 743673</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>383304; 453265</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1873</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3390</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>4952</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1576147</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1795625</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2019576</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2039955</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3595723</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3835580</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2050</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1517752; 1630556</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1650209; 2160050</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2072</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1965867; 2083175</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1911909; 2314832</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2061</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3507245; 3684386</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3617519; 4222162</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P1801-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1801-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
